--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2471507.109805455</v>
+        <v>2469255.030094247</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>266.0286480233243</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755604</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.19788223015046</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087822</v>
       </c>
       <c r="E5" t="n">
-        <v>23.34416082770949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.067761723088</v>
       </c>
       <c r="W7" t="n">
-        <v>58.75796403542186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.7307820829394</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>31.69497743153461</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.42290135054876</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.4902570506611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>8.616048582069491</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>14.76058440587529</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>40.15381658332863</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503995</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>123.6562577500934</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>105.1162657551305</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,16 +2555,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6639636564717</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206814</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
-        <v>204.7007259231375</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>135.3120514073134</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3563,10 +3563,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174147</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.5342109554691</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>173.7797061357541</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>153.02354566733</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>217.0099009525709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219475</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283597</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2150.099532207593</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C4" t="n">
-        <v>2150.099532207593</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>1999.982892795257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>1852.069799212864</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>1705.179851714954</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>1705.179851714954</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>1558.962664932812</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178697</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3103.839206178697</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2849.15471797281</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>2559.73754793585</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>2331.747997037833</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>2331.747997037833</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116518</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176106</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1473305693555</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398576</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398576</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>1012.558641511645</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>784.5690906136274</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.7765114700973</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1537.086630593157</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>528.0429005162094</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,13 +4814,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3293.590692890448</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3040.060216164285</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3040.060216164285</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2687.29156089417</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2313.82580263309</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1923.686470657279</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,16 +4884,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.842048484845</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1285.852497586828</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6057892068301</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>269.7158417089197</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5197424237996</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>802.9288273958734</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>652.8121879835377</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>504.8990944011446</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>358.0091469032342</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>190.8130476181141</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180517</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="D19" t="n">
-        <v>449.485266605716</v>
+        <v>363.7369613277382</v>
       </c>
       <c r="E19" t="n">
-        <v>301.5721730233229</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156759</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314346</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612593</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.95525898292</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>889.0190760550126</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>738.9024366426769</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>590.9893430602838</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2165.078743814364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,19 +7014,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,31 +7187,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
         <v>175.9033664000583</v>
@@ -7327,7 +7327,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2225.348141784855</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2005.746676807796</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1716.671450151994</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1461.986961946107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.569791909146</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.777212765616</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1469.183933700594</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1179.766763663633</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>951.777212765616</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>951.777212765616</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.198457098587571e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54000767002776</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.6786642641544</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>105.2672314396026</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564186937</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.9283956020014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>40.30478226780072</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>185.7414866708166</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
-        <v>21.00892946589968</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>90.39760398172379</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>112.40476825349</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>28.00274033431461</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>35.12774237125711</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="10">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
@@ -26341,19 +26341,19 @@
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184282</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893165.1575273605</v>
+        <v>-893165.1575273606</v>
       </c>
       <c r="C6" t="n">
+        <v>435579.5882002328</v>
+      </c>
+      <c r="D6" t="n">
         <v>435579.5882002324</v>
       </c>
-      <c r="D6" t="n">
-        <v>435579.5882002326</v>
-      </c>
       <c r="E6" t="n">
-        <v>185396.8150166497</v>
+        <v>185362.0770912135</v>
       </c>
       <c r="F6" t="n">
-        <v>510809.2768240048</v>
+        <v>510774.5388985694</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.2768240047</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="H6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985691</v>
       </c>
       <c r="I6" t="n">
-        <v>510809.2768240049</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="J6" t="n">
-        <v>293278.0744267277</v>
+        <v>293243.3365012919</v>
       </c>
       <c r="K6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985691</v>
       </c>
       <c r="L6" t="n">
-        <v>510809.2768240051</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="M6" t="n">
-        <v>425754.248888493</v>
+        <v>425719.5109630574</v>
       </c>
       <c r="N6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="O6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="P6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985691</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>99.2442437476833</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231269</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>112.5878114315662</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>3.154538179687634</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071190073</v>
       </c>
       <c r="E5" t="n">
-        <v>358.5862092445523</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.06988160074</v>
       </c>
       <c r="W7" t="n">
-        <v>227.7650343011691</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.1909435705141</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>172.2229927080855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.1000969860422</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.09439630143365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.410876592902554e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.804036196083734e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29275,22 +29275,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30283,10 +30283,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.426432704165788e-12</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>241.3877517590781</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>353.6230700590493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>417.5509096439922</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>472.0729312464055</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236531</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>565.8030433278964</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>187.2159464875253</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>114.5501250924114</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999012</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>211.4890361370309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>279.7094706696332</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>169.4270660337085</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>340.7312191630721</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683835</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>423.6690094058781</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
